--- a/AppResources/Demo_Excel_File.xlsx
+++ b/AppResources/Demo_Excel_File.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\python programs\MYPORTFOLIOAPP\AppResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devarsh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD00AB8-C8DE-4E1A-96EE-0D6694B4E662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5EC3E-05D2-4E70-9AF9-B3471535493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B5499F0-6D99-481B-930B-002E4E865CFE}"/>
   </bookViews>
@@ -20,10 +20,173 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Devarsh Shah</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4A2A1877-AF81-4A19-8175-3D94303E8AB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Devarsh Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Purchase Date of your stocks in dd-mm-yyyy format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DDBF0374-96AB-403C-A510-F576236627FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Devarsh Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter Stock's Name
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A28810C6-AC0D-4E26-BFDA-3A2B3E0541D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Devarsh Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Go to "https://finance.yahoo.com/lookup" and get the stock's Symbol </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B6883A92-1063-4684-914E-AEB41BFAE1E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Devarsh Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the average price of a share you bought at.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{90852E2B-EDB8-411D-A08B-6C7D2C306913}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Devarsh Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Total number of quantity you bought of the company.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8879B374-D547-4380-9BE5-810AB02E5110}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Devarsh Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter per_share multiply by qty i.e `=Dn*En`</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
@@ -45,6 +208,9 @@
     <t>TOTAL_INVESTMENT</t>
   </si>
   <si>
+    <t>HDFCBANK.NS</t>
+  </si>
+  <si>
     <t>TCS</t>
   </si>
   <si>
@@ -76,22 +242,40 @@
   </si>
   <si>
     <t>HDFC Bank</t>
-  </si>
-  <si>
-    <t>HDFCBANK.NS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -104,14 +288,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,25 +313,25 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +645,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846A96A-2175-4D82-A3A1-06EF1FCCCA42}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846A96A-2175-4D82-A3A1-06EF1FCCCA42}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -484,156 +662,150 @@
     <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>39086</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>305</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="6">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>42815</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>300</v>
+      </c>
+      <c r="E3" s="6">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>42648</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>700</v>
+      </c>
+      <c r="E4" s="6">
+        <v>50</v>
+      </c>
+      <c r="F4" s="6">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>43748</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5">
+        <v>62</v>
+      </c>
+      <c r="E5" s="6">
+        <v>200</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>43767</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>43996</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>305</v>
-      </c>
-      <c r="E2" s="5">
-        <v>200</v>
-      </c>
-      <c r="F2" s="5">
-        <v>61000</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>42815</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>300</v>
-      </c>
-      <c r="E3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="5">
-        <v>15000</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>42648</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <v>700</v>
-      </c>
-      <c r="E4" s="5">
-        <v>50</v>
-      </c>
-      <c r="F4" s="5">
-        <v>35000</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>43748</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>62</v>
-      </c>
-      <c r="E5" s="5">
-        <v>200</v>
-      </c>
-      <c r="F5" s="5">
-        <v>12400</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>43767</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" s="5">
-        <v>200</v>
-      </c>
-      <c r="F6" s="5">
-        <v>40000</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>43996</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>1200</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>24000</v>
       </c>
-      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>